--- a/tut05/output/0501CS13.xlsx
+++ b/tut05/output/0501CS13.xlsx
@@ -550,25 +550,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.836734693877551</v>
+        <v>8.84</v>
       </c>
       <c r="C6" t="n">
-        <v>8.181818181818182</v>
+        <v>8.18</v>
       </c>
       <c r="D6" t="n">
         <v>9</v>
       </c>
       <c r="E6" t="n">
-        <v>8.957446808510639</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>8.333333333333334</v>
+        <v>8.33</v>
       </c>
       <c r="G6" t="n">
         <v>8.15</v>
       </c>
       <c r="H6" t="n">
-        <v>9.219512195121951</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="I6" t="n">
         <v>8.699999999999999</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.836734693877551</v>
+        <v>8.84</v>
       </c>
       <c r="C8" t="n">
-        <v>8.526881720430108</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>8.676470588235293</v>
+        <v>8.68</v>
       </c>
       <c r="E8" t="n">
-        <v>8.748633879781421</v>
+        <v>8.75</v>
       </c>
       <c r="F8" t="n">
-        <v>8.671111111111111</v>
+        <v>8.67</v>
       </c>
       <c r="G8" t="n">
-        <v>8.592452830188678</v>
+        <v>8.59</v>
       </c>
       <c r="H8" t="n">
-        <v>8.676470588235293</v>
+        <v>8.68</v>
       </c>
       <c r="I8" t="n">
-        <v>8.679190751445086</v>
+        <v>8.68</v>
       </c>
     </row>
   </sheetData>
